--- a/辅助总表/技能配置表/技能设定.xlsx
+++ b/辅助总表/技能配置表/技能设定.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
+    <sheet name="主动技能" sheetId="5" r:id="rId4"/>
+    <sheet name="被动分类" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="283">
   <si>
     <t>技能特效</t>
     <rPh sb="0" eb="1">
@@ -479,25 +483,1884 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定身</t>
-    <rPh sb="0" eb="1">
-      <t>din's</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照百分比回复生命</t>
-    <rPh sb="0" eb="1">
-      <t>an'z</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bai'f'b</t>
+    <t>流血</t>
+    <rPh sb="0" eb="1">
+      <t>liu'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体回复生命</t>
+    <rPh sb="0" eb="1">
+      <t>dan't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'f</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sheng'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体毒</t>
+    <rPh sb="0" eb="1">
+      <t>dan't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体伤害</t>
+    <rPh sb="0" eb="1">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体定身</t>
+    <rPh sb="0" eb="1">
+      <t>dan't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'hsen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体诅咒</t>
+    <rPh sb="0" eb="1">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>防御</t>
+    <rPh sb="0" eb="1">
+      <t>fang'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <rPh sb="0" eb="1">
+      <t>jiao's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人特点</t>
+    <rPh sb="0" eb="1">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>te'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色定位</t>
+    <rPh sb="0" eb="1">
+      <t>jiao's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士</t>
+    <rPh sb="0" eb="1">
+      <t>zhan's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师</t>
+    <rPh sb="0" eb="1">
+      <t>mu's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
+    <rPh sb="0" eb="1">
+      <t>fa's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉拉</t>
+    <rPh sb="0" eb="1">
+      <t>ji'la</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛克</t>
+    <rPh sb="0" eb="1">
+      <t>luo'ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍妮芙</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'ni'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'ro</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修</t>
+    <rPh sb="0" eb="1">
+      <t>xiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝蒂</t>
+    <rPh sb="0" eb="1">
+      <t>bei'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍尔</t>
+    <rPh sb="0" eb="1">
+      <t>huo'er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊芙</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王</t>
+    <rPh sb="0" eb="1">
+      <t>guo'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊西多</t>
+    <rPh sb="0" eb="1">
+      <t>yi'xi'duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾琳</t>
+    <rPh sb="0" eb="1">
+      <t>ai'lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娜塔莎</t>
+    <rPh sb="0" eb="1">
+      <t>na'ta'sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧翠丝</t>
+    <rPh sb="0" eb="1">
+      <t>bi'cui's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤尼丝</t>
+    <rPh sb="0" eb="1">
+      <t>you'ni'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤朵拉</t>
+    <rPh sb="0" eb="1">
+      <t>you'duo'la</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>la</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱茉莉</t>
+    <rPh sb="0" eb="1">
+      <t>ai'mo'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼尔斯</t>
+    <rPh sb="0" eb="1">
+      <t>ni'er'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯拉</t>
+    <rPh sb="0" eb="1">
+      <t>ke'nan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>la</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莉莉丝</t>
+    <rPh sb="0" eb="1">
+      <t>l'l's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾德蒙</t>
+    <rPh sb="0" eb="1">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>de'meng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰系远程</t>
+    <rPh sb="0" eb="1">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭</t>
+    <rPh sb="0" eb="1">
+      <t>gong'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单手剑</t>
+    <rPh sb="0" eb="1">
+      <t>dan's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵</t>
+    <rPh sb="0" eb="1">
+      <t>jing'ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火炮</t>
+    <rPh sb="0" eb="1">
+      <t>huo'pao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方炼丹师</t>
+    <rPh sb="0" eb="1">
+      <t>dong'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lian'dan's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方剑仙</t>
+    <rPh sb="0" eb="1">
+      <t>dong'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士剑</t>
+    <rPh sb="0" eb="1">
+      <t>qi's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士书</t>
+    <rPh sb="0" eb="1">
+      <t>qi's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰花成精</t>
+    <rPh sb="0" eb="1">
+      <t>mei'gui'h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生</t>
+    <rPh sb="0" eb="1">
+      <t>yi'sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通女法师，紫色</t>
+    <rPh sb="0" eb="1">
+      <t>p't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nv</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fa's</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通女法师。绿色</t>
+    <rPh sb="0" eb="1">
+      <t>p't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nv</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fa's</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lu'se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书</t>
+    <rPh sb="0" eb="1">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手</t>
+    <rPh sb="0" eb="1">
+      <t>gong'j'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑马巨锤妹</t>
+    <rPh sb="0" eb="1">
+      <t>qi'ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火炮</t>
+    <rPh sb="0" eb="1">
+      <t>huo'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰毒</t>
+    <rPh sb="0" eb="1">
+      <t>mei'gui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效1</t>
+    <rPh sb="0" eb="1">
+      <t>te'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效2</t>
+    <rPh sb="0" eb="1">
+      <t>te'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰突刺</t>
+    <rPh sb="0" eb="1">
+      <t>bing'tu'ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极寒冰爆</t>
+    <rPh sb="0" eb="1">
+      <t>ji'han'bing'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂龙刺</t>
+    <rPh sb="0" eb="1">
+      <t>kuang'long'ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒</t>
+    <rPh sb="0" eb="1">
+      <t>zu'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护之力</t>
+    <rPh sb="0" eb="1">
+      <t>shou'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击斩</t>
+    <rPh sb="0" eb="1">
+      <t>chon'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星雨降临</t>
+    <rPh sb="0" eb="1">
+      <t>xing'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiang'lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄水巨浪</t>
+    <rPh sb="0" eb="1">
+      <t>xuan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ju'lang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冰箭</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'bing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷击</t>
+    <rPh sb="0" eb="1">
+      <t>lei'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷击</t>
+    <rPh sb="0" eb="1">
+      <t>lei'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神乐华彩</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hua'cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒焰狂击</t>
+    <rPh sb="0" eb="1">
+      <t>nu'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kuang'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫雷闪（群体）</t>
+    <rPh sb="0" eb="1">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qun'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙卷风</t>
+    <rPh sb="0" eb="1">
+      <t>hei'long</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>juan'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束缚</t>
+    <rPh sb="0" eb="1">
+      <t>su'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂龙刺</t>
+    <rPh sb="0" eb="1">
+      <t>kuang'long</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回春术</t>
+    <rPh sb="0" eb="1">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>chun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极寒判决</t>
+    <rPh sb="0" eb="1">
+      <t>ji'han</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pan'jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回春术</t>
+    <rPh sb="0" eb="1">
+      <t>hui'chun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷击3道</t>
+    <rPh sb="0" eb="1">
+      <t>lei'j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前排敌人造成伤害</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qian'p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>di'r</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>hui'f</t>
+      <t>zao'c</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>sheng'm</t>
+      <t>shang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机3体雷击</t>
+    <rPh sb="0" eb="1">
+      <t>sui'j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lei'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <rPh sb="0" eb="1">
+      <t>fan'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙卷风</t>
+    <rPh sb="0" eb="1">
+      <t>hei'l'juan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>long</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>juan'feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体伤害附带流血</t>
+    <rPh sb="0" eb="1">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu'dai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liu'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体回血并提升攻击</t>
+    <rPh sb="0" eb="1">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'xue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'shng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体大伤害</t>
+    <rPh sb="0" eb="1">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极寒冰暴</t>
+    <rPh sb="0" eb="1">
+      <t>ji'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方全体伤害附带减速</t>
+    <rPh sb="0" eb="1">
+      <t>dui'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu'dai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方单体伤害，附带减速</t>
+    <rPh sb="0" eb="1">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fu'd</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jian's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击斩</t>
+    <rPh sb="0" eb="1">
+      <t>chong'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖线伤害</t>
+    <rPh sb="0" eb="1">
+      <t>shu'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体伤害</t>
+    <rPh sb="0" eb="1">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对面全体中毒</t>
+    <rPh sb="0" eb="1">
+      <t>dui'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机3体治疗</t>
+    <rPh sb="0" eb="1">
+      <t>sui'j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机2体治疗</t>
+    <rPh sb="0" eb="1">
+      <t>sui'j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围伤害</t>
+    <rPh sb="0" eb="1">
+      <t>fan'w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体束缚</t>
+    <rPh sb="0" eb="1">
+      <t>dan't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>su'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体治疗并提升攻击</t>
+    <rPh sb="0" eb="1">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护之力</t>
+    <rPh sb="0" eb="1">
+      <t>shou'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横排伤害</t>
+    <rPh sb="0" eb="1">
+      <t>heng'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升随机3体提升防御</t>
+    <rPh sb="0" eb="1">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sui'j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回春术</t>
+    <rPh sb="0" eb="1">
+      <t>hui'chun's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰龙卷风</t>
+    <rPh sb="0" eb="1">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>long'j'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横扫</t>
+    <rPh sb="0" eb="1">
+      <t>heng'sao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰毒</t>
+    <rPh sb="0" eb="1">
+      <t>mei'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方单体中毒</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dan't</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体伤害附带减速</t>
+    <rPh sb="0" eb="1">
+      <t>dan't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu'dai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方全体减防，减攻</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian'shao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fang'yu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian'shao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机2体治疗</t>
+    <rPh sb="0" eb="1">
+      <t>sui'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冰箭</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'bing'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄水巨浪</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'shui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ju'lang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方全体伤害，附带减速</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu'd</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jian'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方全体伤害，附带减速</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冰箭</t>
+    <rPh sb="0" eb="1">
+      <t>x'b'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方全体伤害</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂龙刺</t>
+    <rPh sb="0" eb="1">
+      <t>k'l'ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂龙刺</t>
+    <rPh sb="0" eb="1">
+      <t>k'l'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖排伤害</t>
+    <rPh sb="0" eb="1">
+      <t>shu'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对全体伤害持续伤害</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chi'x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <rPh sb="0" eb="1">
+      <t>pin'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动1</t>
+    <rPh sb="0" eb="1">
+      <t>bei'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动2</t>
+    <rPh sb="0" eb="1">
+      <t>bei'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动3</t>
+    <rPh sb="0" eb="1">
+      <t>bei'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护</t>
+  </si>
+  <si>
+    <t>守护</t>
+    <rPh sb="0" eb="1">
+      <t>shou'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷血</t>
+    <rPh sb="0" eb="1">
+      <t>leng'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准</t>
+  </si>
+  <si>
+    <t>精准</t>
+    <rPh sb="0" eb="1">
+      <t>jing'zhun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急速</t>
+  </si>
+  <si>
+    <t>急速</t>
+    <rPh sb="0" eb="1">
+      <t>ji'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静</t>
+  </si>
+  <si>
+    <t>刚烈</t>
+  </si>
+  <si>
+    <t>加攻</t>
+    <rPh sb="0" eb="1">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gon</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加防</t>
+    <rPh sb="0" eb="1">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <rPh sb="0" eb="1">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加怒</t>
+    <rPh sb="0" eb="1">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
+  </si>
+  <si>
+    <t>命中</t>
+    <rPh sb="0" eb="1">
+      <t>ming'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回避</t>
+  </si>
+  <si>
+    <t>回避</t>
+    <rPh sb="0" eb="1">
+      <t>hui'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+  </si>
+  <si>
+    <t>格挡</t>
+    <rPh sb="0" eb="1">
+      <t>ge'dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反率</t>
+    <rPh sb="0" eb="1">
+      <t>fan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击率</t>
+    <rPh sb="0" eb="1">
+      <t>lian'j'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <rPh sb="0" eb="1">
+      <t>bao'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆伤</t>
+  </si>
+  <si>
+    <t>爆伤</t>
+    <rPh sb="0" eb="1">
+      <t>bao'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲</t>
+  </si>
+  <si>
+    <t>破甲</t>
+    <rPh sb="0" eb="1">
+      <t>po'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免伤</t>
+  </si>
+  <si>
+    <t>免伤</t>
+    <rPh sb="0" eb="1">
+      <t>mian'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加暴加速</t>
+    <rPh sb="0" eb="1">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加防加免</t>
+    <rPh sb="0" eb="1">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mian'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静</t>
+    <rPh sb="0" eb="1">
+      <t>leng'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>攻击</t>
+    <rPh sb="0" eb="1">
+      <t>gong'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6级</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7级</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9级</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级</t>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11级</t>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12级</t>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13级</t>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14级</t>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15级</t>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16级</t>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17级</t>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18级</t>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19级</t>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20级</t>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <rPh sb="0" eb="1">
+      <t>ming'zhon</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回避</t>
+    <rPh sb="0" eb="1">
+      <t>hui'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击</t>
+  </si>
+  <si>
+    <t>反击</t>
+    <rPh sb="0" eb="1">
+      <t>fan'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
+    <t>连击</t>
+    <rPh sb="0" eb="1">
+      <t>lian'j'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+  </si>
+  <si>
+    <t>暴击</t>
+    <rPh sb="0" eb="1">
+      <t>bao'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>速度</t>
+    <rPh sb="0" eb="1">
+      <t>su'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，3，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4，4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5，4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5，5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6，5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6，6，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7，6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7，7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8，7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8，8，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9，8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9，9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10，9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10，10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11，11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防+免伤</t>
+    <rPh sb="0" eb="1">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mian'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击+格挡</t>
+    <rPh sb="0" eb="1">
+      <t>fan'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ge'dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度+命中</t>
+    <rPh sb="0" eb="1">
+      <t>su'd</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲+命中</t>
+    <rPh sb="0" eb="1">
+      <t>po'j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击+命中</t>
+    <rPh sb="0" eb="1">
+      <t>bao'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵活</t>
+  </si>
+  <si>
+    <t>灵活</t>
+    <rPh sb="0" eb="1">
+      <t>ling'huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回避+连击</t>
+    <rPh sb="0" eb="1">
+      <t>hui'b</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lian'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂战</t>
+    <rPh sb="0" eb="1">
+      <t>kuang'zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击+暴击</t>
+    <rPh sb="0" eb="1">
+      <t>lian'j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚烈</t>
+    <rPh sb="0" eb="1">
+      <t>gang'lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命</t>
+  </si>
+  <si>
+    <t>致命</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲+暴击</t>
+    <rPh sb="0" eb="1">
+      <t>po'j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <rPh sb="0" eb="1">
+      <t>fang'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横扫伤害</t>
+    <rPh sb="0" eb="1">
+      <t>heng's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体伤害，附带流血</t>
+    <rPh sb="0" eb="1">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fu'd</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>liu'x</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,7 +2369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -522,13 +2385,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -543,8 +2426,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -557,6 +2443,1845 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7454900" y="190500"/>
+          <a:ext cx="3797300" cy="2959100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7454900" y="3619500"/>
+          <a:ext cx="4178300" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12407900" y="190500"/>
+          <a:ext cx="4102100" cy="3759200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12407900" y="4381500"/>
+          <a:ext cx="4254500" cy="3530600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1485634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1651000" y="952500"/>
+          <a:ext cx="863600" cy="1485634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1087714</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="584200"/>
+          <a:ext cx="1087714" cy="1308100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1014110</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1473200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="6654800"/>
+          <a:ext cx="1014110" cy="1473200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1087070</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1193800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="8178800"/>
+          <a:ext cx="1087070" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1335945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="9702800"/>
+          <a:ext cx="1003300" cy="1335945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1343797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="11226800"/>
+          <a:ext cx="762000" cy="1343797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1384300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1347595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="12750800"/>
+          <a:ext cx="1384300" cy="1347595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1270000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1347557</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="14274800"/>
+          <a:ext cx="1270000" cy="1347557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1137131</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1346200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="15798800"/>
+          <a:ext cx="1137131" cy="1346200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1186873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="17322800"/>
+          <a:ext cx="1320800" cy="1186873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1000606</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1320800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="18846800"/>
+          <a:ext cx="1000606" cy="1320800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1232920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1206500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="20370800"/>
+          <a:ext cx="1232920" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1485753</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1282700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="21894800"/>
+          <a:ext cx="1485753" cy="1282700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1248236</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1384300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="23418800"/>
+          <a:ext cx="1248236" cy="1384300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1309697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="24942800"/>
+          <a:ext cx="1003300" cy="1309697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1227915</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1384300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="26466800"/>
+          <a:ext cx="1227915" cy="1384300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1205849</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1460500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="27990800"/>
+          <a:ext cx="1205849" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1459033</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1130300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="29514800"/>
+          <a:ext cx="1459033" cy="1130300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876239</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1308100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="31038800"/>
+          <a:ext cx="876239" cy="1308100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1384300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1330852</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="32562800"/>
+          <a:ext cx="1384300" cy="1330852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1329397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="3606800"/>
+          <a:ext cx="1371600" cy="1329397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1323631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="2082800"/>
+          <a:ext cx="1003300" cy="1323631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1206500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1485634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="5130800"/>
+          <a:ext cx="863600" cy="1485634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1430614</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="584200"/>
+          <a:ext cx="1087714" cy="1308100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1357010</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1473200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="6654800"/>
+          <a:ext cx="1014110" cy="1473200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1429970</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1193800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="8178800"/>
+          <a:ext cx="1087070" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1346200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1335945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="9702800"/>
+          <a:ext cx="1003300" cy="1335945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1343797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="11226800"/>
+          <a:ext cx="762000" cy="1343797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1727200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1347595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="12750800"/>
+          <a:ext cx="1384300" cy="1347595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1612900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1347557</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="14274800"/>
+          <a:ext cx="1270000" cy="1347557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1480031</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1346200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="15798800"/>
+          <a:ext cx="1137131" cy="1346200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1186873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="17322800"/>
+          <a:ext cx="1320800" cy="1186873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1343506</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1320800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="18846800"/>
+          <a:ext cx="1000606" cy="1320800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1575820</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1206500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="20370800"/>
+          <a:ext cx="1232920" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88753</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1282700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="21894800"/>
+          <a:ext cx="1485753" cy="1282700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1591136</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1384300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="23418800"/>
+          <a:ext cx="1248236" cy="1384300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1346200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1309697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="24942800"/>
+          <a:ext cx="1003300" cy="1309697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1570815</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1384300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="26466800"/>
+          <a:ext cx="1227915" cy="1384300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1548749</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1460500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="27990800"/>
+          <a:ext cx="1205849" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>62033</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1130300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="29514800"/>
+          <a:ext cx="1459033" cy="1130300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1219139</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1308100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="31038800"/>
+          <a:ext cx="876239" cy="1308100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1727200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1330852</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="32562800"/>
+          <a:ext cx="1384300" cy="1330852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1329397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="3606800"/>
+          <a:ext cx="1371600" cy="1329397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1346200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1323631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="2082800"/>
+          <a:ext cx="1003300" cy="1323631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -822,20 +4547,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F32"/>
+  <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -846,7 +4571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -862,11 +4587,8 @@
       <c r="E4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -882,11 +4604,8 @@
       <c r="E5" t="s">
         <v>62</v>
       </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -896,8 +4615,11 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -907,8 +4629,14 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -922,7 +4650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -936,11 +4664,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
@@ -950,7 +4678,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -960,8 +4688,11 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -971,8 +4702,11 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -982,8 +4716,11 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -993,8 +4730,11 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1005,7 +4745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1015,8 +4755,11 @@
       <c r="C16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1026,8 +4769,11 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1037,8 +4783,11 @@
       <c r="C18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1048,8 +4797,11 @@
       <c r="C19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1060,7 +4812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1070,8 +4822,11 @@
       <c r="C21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1082,7 +4837,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1093,7 +4848,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1104,7 +4859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1115,7 +4870,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1126,7 +4881,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1137,7 +4892,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1148,7 +4903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1159,7 +4914,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1170,7 +4925,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1181,7 +4936,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1190,6 +4945,3087 @@
       </c>
       <c r="C32" t="s">
         <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:14" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" t="s">
+        <v>130</v>
+      </c>
+      <c r="N11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>156</v>
+      </c>
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" t="s">
+        <v>160</v>
+      </c>
+      <c r="M13" t="s">
+        <v>176</v>
+      </c>
+      <c r="N13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>163</v>
+      </c>
+      <c r="M14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" t="s">
+        <v>170</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="s">
+        <v>162</v>
+      </c>
+      <c r="N20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" t="s">
+        <v>160</v>
+      </c>
+      <c r="M23" t="s">
+        <v>176</v>
+      </c>
+      <c r="N23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" t="s">
+        <v>132</v>
+      </c>
+      <c r="N24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="125" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="125" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3" t="s">
+        <v>280</v>
+      </c>
+      <c r="M3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L4" t="s">
+        <v>280</v>
+      </c>
+      <c r="M4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" t="s">
+        <v>209</v>
+      </c>
+      <c r="M5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" t="s">
+        <v>277</v>
+      </c>
+      <c r="L6" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L8" t="s">
+        <v>242</v>
+      </c>
+      <c r="M8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L9" t="s">
+        <v>240</v>
+      </c>
+      <c r="M9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" t="s">
+        <v>238</v>
+      </c>
+      <c r="M10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" t="s">
+        <v>238</v>
+      </c>
+      <c r="L11" t="s">
+        <v>188</v>
+      </c>
+      <c r="M11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" t="s">
+        <v>207</v>
+      </c>
+      <c r="L12" t="s">
+        <v>240</v>
+      </c>
+      <c r="M12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" t="s">
+        <v>238</v>
+      </c>
+      <c r="M13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>277</v>
+      </c>
+      <c r="L14" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s">
+        <v>205</v>
+      </c>
+      <c r="L15" t="s">
+        <v>200</v>
+      </c>
+      <c r="M15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>188</v>
+      </c>
+      <c r="L16" t="s">
+        <v>238</v>
+      </c>
+      <c r="M16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>214</v>
+      </c>
+      <c r="L17" t="s">
+        <v>277</v>
+      </c>
+      <c r="M17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>244</v>
+      </c>
+      <c r="L18" t="s">
+        <v>271</v>
+      </c>
+      <c r="M18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" t="s">
+        <v>282</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" t="s">
+        <v>277</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" t="s">
+        <v>238</v>
+      </c>
+      <c r="L23" t="s">
+        <v>240</v>
+      </c>
+      <c r="M23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:J24">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S1" t="s">
+        <v>229</v>
+      </c>
+      <c r="T1" t="s">
+        <v>230</v>
+      </c>
+      <c r="U1" t="s">
+        <v>231</v>
+      </c>
+      <c r="V1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W1" t="s">
+        <v>233</v>
+      </c>
+      <c r="X1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>9</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>11</v>
+      </c>
+      <c r="Q2">
+        <v>12</v>
+      </c>
+      <c r="R2">
+        <v>13</v>
+      </c>
+      <c r="S2">
+        <v>14</v>
+      </c>
+      <c r="T2">
+        <v>15</v>
+      </c>
+      <c r="U2">
+        <v>16</v>
+      </c>
+      <c r="V2">
+        <v>17</v>
+      </c>
+      <c r="W2">
+        <v>18</v>
+      </c>
+      <c r="X2">
+        <v>19</v>
+      </c>
+      <c r="Y2">
+        <v>20</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>9</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>11</v>
+      </c>
+      <c r="Q3">
+        <v>12</v>
+      </c>
+      <c r="R3">
+        <v>13</v>
+      </c>
+      <c r="S3">
+        <v>14</v>
+      </c>
+      <c r="T3">
+        <v>15</v>
+      </c>
+      <c r="U3">
+        <v>16</v>
+      </c>
+      <c r="V3">
+        <v>17</v>
+      </c>
+      <c r="W3">
+        <v>18</v>
+      </c>
+      <c r="X3">
+        <v>19</v>
+      </c>
+      <c r="Y3">
+        <v>20</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>11</v>
+      </c>
+      <c r="Q4">
+        <v>12</v>
+      </c>
+      <c r="R4">
+        <v>13</v>
+      </c>
+      <c r="S4">
+        <v>14</v>
+      </c>
+      <c r="T4">
+        <v>15</v>
+      </c>
+      <c r="U4">
+        <v>16</v>
+      </c>
+      <c r="V4">
+        <v>17</v>
+      </c>
+      <c r="W4">
+        <v>18</v>
+      </c>
+      <c r="X4">
+        <v>19</v>
+      </c>
+      <c r="Y4">
+        <v>20</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>11</v>
+      </c>
+      <c r="Q5">
+        <v>12</v>
+      </c>
+      <c r="R5">
+        <v>13</v>
+      </c>
+      <c r="S5">
+        <v>14</v>
+      </c>
+      <c r="T5">
+        <v>15</v>
+      </c>
+      <c r="U5">
+        <v>16</v>
+      </c>
+      <c r="V5">
+        <v>17</v>
+      </c>
+      <c r="W5">
+        <v>18</v>
+      </c>
+      <c r="X5">
+        <v>19</v>
+      </c>
+      <c r="Y5">
+        <v>20</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>9</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>11</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+      <c r="R6">
+        <v>13</v>
+      </c>
+      <c r="S6">
+        <v>14</v>
+      </c>
+      <c r="T6">
+        <v>15</v>
+      </c>
+      <c r="U6">
+        <v>16</v>
+      </c>
+      <c r="V6">
+        <v>17</v>
+      </c>
+      <c r="W6">
+        <v>18</v>
+      </c>
+      <c r="X6">
+        <v>19</v>
+      </c>
+      <c r="Y6">
+        <v>20</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>9</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>11</v>
+      </c>
+      <c r="Q7">
+        <v>12</v>
+      </c>
+      <c r="R7">
+        <v>13</v>
+      </c>
+      <c r="S7">
+        <v>14</v>
+      </c>
+      <c r="T7">
+        <v>15</v>
+      </c>
+      <c r="U7">
+        <v>16</v>
+      </c>
+      <c r="V7">
+        <v>17</v>
+      </c>
+      <c r="W7">
+        <v>18</v>
+      </c>
+      <c r="X7">
+        <v>19</v>
+      </c>
+      <c r="Y7">
+        <v>20</v>
+      </c>
+      <c r="AA7">
+        <v>6</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>11</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
+      <c r="R8">
+        <v>13</v>
+      </c>
+      <c r="S8">
+        <v>14</v>
+      </c>
+      <c r="T8">
+        <v>15</v>
+      </c>
+      <c r="U8">
+        <v>16</v>
+      </c>
+      <c r="V8">
+        <v>17</v>
+      </c>
+      <c r="W8">
+        <v>18</v>
+      </c>
+      <c r="X8">
+        <v>19</v>
+      </c>
+      <c r="Y8">
+        <v>20</v>
+      </c>
+      <c r="AA8">
+        <v>7</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9">
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <v>12</v>
+      </c>
+      <c r="R9">
+        <v>13</v>
+      </c>
+      <c r="S9">
+        <v>14</v>
+      </c>
+      <c r="T9">
+        <v>15</v>
+      </c>
+      <c r="U9">
+        <v>16</v>
+      </c>
+      <c r="V9">
+        <v>17</v>
+      </c>
+      <c r="W9">
+        <v>18</v>
+      </c>
+      <c r="X9">
+        <v>19</v>
+      </c>
+      <c r="Y9">
+        <v>20</v>
+      </c>
+      <c r="AA9">
+        <v>8</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
+      <c r="R10">
+        <v>13</v>
+      </c>
+      <c r="S10">
+        <v>14</v>
+      </c>
+      <c r="T10">
+        <v>15</v>
+      </c>
+      <c r="U10">
+        <v>16</v>
+      </c>
+      <c r="V10">
+        <v>17</v>
+      </c>
+      <c r="W10">
+        <v>18</v>
+      </c>
+      <c r="X10">
+        <v>19</v>
+      </c>
+      <c r="Y10">
+        <v>20</v>
+      </c>
+      <c r="AA10">
+        <v>9</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>11</v>
+      </c>
+      <c r="Q11">
+        <v>12</v>
+      </c>
+      <c r="R11">
+        <v>13</v>
+      </c>
+      <c r="S11">
+        <v>14</v>
+      </c>
+      <c r="T11">
+        <v>15</v>
+      </c>
+      <c r="U11">
+        <v>16</v>
+      </c>
+      <c r="V11">
+        <v>17</v>
+      </c>
+      <c r="W11">
+        <v>18</v>
+      </c>
+      <c r="X11">
+        <v>19</v>
+      </c>
+      <c r="Y11">
+        <v>20</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>8</v>
+      </c>
+      <c r="N12">
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <v>13</v>
+      </c>
+      <c r="S12">
+        <v>14</v>
+      </c>
+      <c r="T12">
+        <v>15</v>
+      </c>
+      <c r="U12">
+        <v>16</v>
+      </c>
+      <c r="V12">
+        <v>17</v>
+      </c>
+      <c r="W12">
+        <v>18</v>
+      </c>
+      <c r="X12">
+        <v>19</v>
+      </c>
+      <c r="Y12">
+        <v>20</v>
+      </c>
+      <c r="AA12">
+        <v>11</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>9</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13">
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <v>13</v>
+      </c>
+      <c r="S13">
+        <v>14</v>
+      </c>
+      <c r="T13">
+        <v>15</v>
+      </c>
+      <c r="U13">
+        <v>16</v>
+      </c>
+      <c r="V13">
+        <v>17</v>
+      </c>
+      <c r="W13">
+        <v>18</v>
+      </c>
+      <c r="X13">
+        <v>19</v>
+      </c>
+      <c r="Y13">
+        <v>20</v>
+      </c>
+      <c r="AA13">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA14">
+        <v>13</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA15">
+        <v>14</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H16" t="s">
+        <v>248</v>
+      </c>
+      <c r="I16" t="s">
+        <v>249</v>
+      </c>
+      <c r="J16" t="s">
+        <v>250</v>
+      </c>
+      <c r="K16" t="s">
+        <v>251</v>
+      </c>
+      <c r="L16" t="s">
+        <v>252</v>
+      </c>
+      <c r="M16" t="s">
+        <v>253</v>
+      </c>
+      <c r="N16" t="s">
+        <v>254</v>
+      </c>
+      <c r="O16" t="s">
+        <v>255</v>
+      </c>
+      <c r="P16" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>257</v>
+      </c>
+      <c r="R16" t="s">
+        <v>258</v>
+      </c>
+      <c r="S16" t="s">
+        <v>259</v>
+      </c>
+      <c r="T16" t="s">
+        <v>260</v>
+      </c>
+      <c r="U16" t="s">
+        <v>261</v>
+      </c>
+      <c r="V16" t="s">
+        <v>262</v>
+      </c>
+      <c r="W16" t="s">
+        <v>263</v>
+      </c>
+      <c r="X16" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA16">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" t="s">
+        <v>248</v>
+      </c>
+      <c r="I17" t="s">
+        <v>249</v>
+      </c>
+      <c r="J17" t="s">
+        <v>250</v>
+      </c>
+      <c r="K17" t="s">
+        <v>251</v>
+      </c>
+      <c r="L17" t="s">
+        <v>252</v>
+      </c>
+      <c r="M17" t="s">
+        <v>253</v>
+      </c>
+      <c r="N17" t="s">
+        <v>254</v>
+      </c>
+      <c r="O17" t="s">
+        <v>255</v>
+      </c>
+      <c r="P17" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>257</v>
+      </c>
+      <c r="R17" t="s">
+        <v>258</v>
+      </c>
+      <c r="S17" t="s">
+        <v>259</v>
+      </c>
+      <c r="T17" t="s">
+        <v>260</v>
+      </c>
+      <c r="U17" t="s">
+        <v>261</v>
+      </c>
+      <c r="V17" t="s">
+        <v>262</v>
+      </c>
+      <c r="W17" t="s">
+        <v>263</v>
+      </c>
+      <c r="X17" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA17">
+        <v>16</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" t="s">
+        <v>246</v>
+      </c>
+      <c r="G18" t="s">
+        <v>247</v>
+      </c>
+      <c r="H18" t="s">
+        <v>248</v>
+      </c>
+      <c r="I18" t="s">
+        <v>249</v>
+      </c>
+      <c r="J18" t="s">
+        <v>250</v>
+      </c>
+      <c r="K18" t="s">
+        <v>251</v>
+      </c>
+      <c r="L18" t="s">
+        <v>252</v>
+      </c>
+      <c r="M18" t="s">
+        <v>253</v>
+      </c>
+      <c r="N18" t="s">
+        <v>254</v>
+      </c>
+      <c r="O18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P18" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>257</v>
+      </c>
+      <c r="R18" t="s">
+        <v>258</v>
+      </c>
+      <c r="S18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T18" t="s">
+        <v>260</v>
+      </c>
+      <c r="U18" t="s">
+        <v>261</v>
+      </c>
+      <c r="V18" t="s">
+        <v>262</v>
+      </c>
+      <c r="W18" t="s">
+        <v>263</v>
+      </c>
+      <c r="X18" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA18">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I19" t="s">
+        <v>249</v>
+      </c>
+      <c r="J19" t="s">
+        <v>250</v>
+      </c>
+      <c r="K19" t="s">
+        <v>251</v>
+      </c>
+      <c r="L19" t="s">
+        <v>252</v>
+      </c>
+      <c r="M19" t="s">
+        <v>253</v>
+      </c>
+      <c r="N19" t="s">
+        <v>254</v>
+      </c>
+      <c r="O19" t="s">
+        <v>255</v>
+      </c>
+      <c r="P19" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>257</v>
+      </c>
+      <c r="R19" t="s">
+        <v>258</v>
+      </c>
+      <c r="S19" t="s">
+        <v>259</v>
+      </c>
+      <c r="T19" t="s">
+        <v>260</v>
+      </c>
+      <c r="U19" t="s">
+        <v>261</v>
+      </c>
+      <c r="V19" t="s">
+        <v>262</v>
+      </c>
+      <c r="W19" t="s">
+        <v>263</v>
+      </c>
+      <c r="X19" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA19">
+        <v>18</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" t="s">
+        <v>246</v>
+      </c>
+      <c r="G20" t="s">
+        <v>247</v>
+      </c>
+      <c r="H20" t="s">
+        <v>248</v>
+      </c>
+      <c r="I20" t="s">
+        <v>249</v>
+      </c>
+      <c r="J20" t="s">
+        <v>250</v>
+      </c>
+      <c r="K20" t="s">
+        <v>251</v>
+      </c>
+      <c r="L20" t="s">
+        <v>252</v>
+      </c>
+      <c r="M20" t="s">
+        <v>253</v>
+      </c>
+      <c r="N20" t="s">
+        <v>254</v>
+      </c>
+      <c r="O20" t="s">
+        <v>255</v>
+      </c>
+      <c r="P20" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>257</v>
+      </c>
+      <c r="R20" t="s">
+        <v>258</v>
+      </c>
+      <c r="S20" t="s">
+        <v>259</v>
+      </c>
+      <c r="T20" t="s">
+        <v>260</v>
+      </c>
+      <c r="U20" t="s">
+        <v>261</v>
+      </c>
+      <c r="V20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W20" t="s">
+        <v>263</v>
+      </c>
+      <c r="X20" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA20">
+        <v>19</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" t="s">
+        <v>248</v>
+      </c>
+      <c r="I21" t="s">
+        <v>249</v>
+      </c>
+      <c r="J21" t="s">
+        <v>250</v>
+      </c>
+      <c r="K21" t="s">
+        <v>251</v>
+      </c>
+      <c r="L21" t="s">
+        <v>252</v>
+      </c>
+      <c r="M21" t="s">
+        <v>253</v>
+      </c>
+      <c r="N21" t="s">
+        <v>254</v>
+      </c>
+      <c r="O21" t="s">
+        <v>255</v>
+      </c>
+      <c r="P21" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>257</v>
+      </c>
+      <c r="R21" t="s">
+        <v>258</v>
+      </c>
+      <c r="S21" t="s">
+        <v>259</v>
+      </c>
+      <c r="T21" t="s">
+        <v>260</v>
+      </c>
+      <c r="U21" t="s">
+        <v>261</v>
+      </c>
+      <c r="V21" t="s">
+        <v>262</v>
+      </c>
+      <c r="W21" t="s">
+        <v>263</v>
+      </c>
+      <c r="X21" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA21">
+        <v>20</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" t="s">
+        <v>248</v>
+      </c>
+      <c r="I22" t="s">
+        <v>249</v>
+      </c>
+      <c r="J22" t="s">
+        <v>250</v>
+      </c>
+      <c r="K22" t="s">
+        <v>251</v>
+      </c>
+      <c r="L22" t="s">
+        <v>252</v>
+      </c>
+      <c r="M22" t="s">
+        <v>253</v>
+      </c>
+      <c r="N22" t="s">
+        <v>254</v>
+      </c>
+      <c r="O22" t="s">
+        <v>255</v>
+      </c>
+      <c r="P22" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>257</v>
+      </c>
+      <c r="R22" t="s">
+        <v>258</v>
+      </c>
+      <c r="S22" t="s">
+        <v>259</v>
+      </c>
+      <c r="T22" t="s">
+        <v>260</v>
+      </c>
+      <c r="U22" t="s">
+        <v>261</v>
+      </c>
+      <c r="V22" t="s">
+        <v>262</v>
+      </c>
+      <c r="W22" t="s">
+        <v>263</v>
+      </c>
+      <c r="X22" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>279</v>
+      </c>
+      <c r="E23" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" t="s">
+        <v>247</v>
+      </c>
+      <c r="H23" t="s">
+        <v>248</v>
+      </c>
+      <c r="I23" t="s">
+        <v>249</v>
+      </c>
+      <c r="J23" t="s">
+        <v>250</v>
+      </c>
+      <c r="K23" t="s">
+        <v>251</v>
+      </c>
+      <c r="L23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M23" t="s">
+        <v>253</v>
+      </c>
+      <c r="N23" t="s">
+        <v>254</v>
+      </c>
+      <c r="O23" t="s">
+        <v>255</v>
+      </c>
+      <c r="P23" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>257</v>
+      </c>
+      <c r="R23" t="s">
+        <v>258</v>
+      </c>
+      <c r="S23" t="s">
+        <v>259</v>
+      </c>
+      <c r="T23" t="s">
+        <v>260</v>
+      </c>
+      <c r="U23" t="s">
+        <v>261</v>
+      </c>
+      <c r="V23" t="s">
+        <v>262</v>
+      </c>
+      <c r="W23" t="s">
+        <v>263</v>
+      </c>
+      <c r="X23" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
